--- a/library/ITEMBASE_TEMPLATE.xlsx
+++ b/library/ITEMBASE_TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indra\Documents\dtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Currency Code</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>CNT-CON-02102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAS-002 </t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>dsadadsadada</t>
+  </si>
+  <si>
+    <t>C11511B20001</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>PHP</t>
   </si>
 </sst>
 </file>
@@ -419,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +450,7 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -476,95 +494,103 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>9</v>
       </c>
       <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <f>SUM(C2:N2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>90010</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f>SUM(D3:N3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -580,55 +606,135 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>34</v>
+      </c>
+      <c r="N6" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>33</v>
+      </c>
+      <c r="M7" s="1">
+        <v>331</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -644,7 +750,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -660,7 +766,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -676,7 +782,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -692,7 +798,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -708,7 +814,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -724,7 +830,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -740,7 +846,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -756,7 +862,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1732,6 +1838,22 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
